--- a/sat_condensed.xlsx
+++ b/sat_condensed.xlsx
@@ -517,7 +517,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.580375%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.5948125000000001%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.6333125%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.5934375%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.578625%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.6113125%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.5084375%</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.5994375000000001%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.5693125%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.5556875%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.54375%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.503375%</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.6045%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.578625%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.537875%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.561875%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.5755%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.598125%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.5649375000000001%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.574%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.559375%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.6050625%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.5320625%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.5802499999999999%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.559625%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.56975%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.5065625%</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.5671875%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.64275%</t>
+          <t>64%</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.5859375%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.5766249999999999%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.622125%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0.556875%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.5771875%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.5535%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0.5700624999999999%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0.5754375%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0.555125%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.568375%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.5835625%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0.5303125%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0.584375%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0.56%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0.5683750000000001%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0.5755%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0.52475%</t>
+          <t>52%</t>
         </is>
       </c>
     </row>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>0.5656874999999999%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0.49481250000000004%</t>
+          <t>49%</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0.6733125%</t>
+          <t>67%</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>0.576875%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>0.652%</t>
+          <t>65%</t>
         </is>
       </c>
     </row>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>0.5730625%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0.61%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0.6653749999999999%</t>
+          <t>66%</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0.7601249999999999%</t>
+          <t>76%</t>
         </is>
       </c>
     </row>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>0.593%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>0.6823750000000001%</t>
+          <t>68%</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0.595875%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>0.6793125000000001%</t>
+          <t>67%</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>0.7220625000000002%</t>
+          <t>72%</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0.5930625%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0.6566249999999999%</t>
+          <t>65%</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0.6245%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>0.58825%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0.7138125%</t>
+          <t>71%</t>
         </is>
       </c>
     </row>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.693125%</t>
+          <t>69%</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.57275%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0.621%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0.6461875%</t>
+          <t>64%</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0.6458125%</t>
+          <t>64%</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0.637875%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0.7529375%</t>
+          <t>75%</t>
         </is>
       </c>
     </row>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>0.7005625000000001%</t>
+          <t>70%</t>
         </is>
       </c>
     </row>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0.688%</t>
+          <t>68%</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0.528875%</t>
+          <t>52%</t>
         </is>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>0.5489375%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0.6875625%</t>
+          <t>68%</t>
         </is>
       </c>
     </row>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>0.65975%</t>
+          <t>65%</t>
         </is>
       </c>
     </row>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>0.5008125%</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>0.5035625%</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>0.6550625%</t>
+          <t>65%</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>0.5740625%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>0.5642499999999999%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>0.5965%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>0.58125%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>0.5080625%</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>0.49118750000000005%</t>
+          <t>49%</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>0.518625%</t>
+          <t>51%</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>0.5131874999999999%</t>
+          <t>51%</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>0.5100625%</t>
+          <t>51%</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>0.6796875%</t>
+          <t>67%</t>
         </is>
       </c>
     </row>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>0.5143125000000001%</t>
+          <t>51%</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>0.5534375%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>0.55975%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>0.5260625%</t>
+          <t>52%</t>
         </is>
       </c>
     </row>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>0.561875%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -4453,7 +4453,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>0.5745%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>0.5683750000000001%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>0.5041875%</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>0.5385625%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>0.5806874999999999%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>0.5009375%</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -4699,7 +4699,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>0.5945625%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>0.5783125%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>0.643%</t>
+          <t>64%</t>
         </is>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>0.6239374999999999%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>0.61875%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>0.589375%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>0.5738125000000001%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>0.6475624999999999%</t>
+          <t>64%</t>
         </is>
       </c>
     </row>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>0.5622499999999999%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>0.6082500000000001%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>0.588875%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>0.644%</t>
+          <t>64%</t>
         </is>
       </c>
     </row>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>0.640125%</t>
+          <t>64%</t>
         </is>
       </c>
     </row>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>0.6111249999999999%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -5273,7 +5273,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>0.6338750000000001%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -5314,7 +5314,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>0.6295625%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -5355,7 +5355,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>0.5309375%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -5396,7 +5396,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>0.62225%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>0.6208750000000001%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>0.621375%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>0.6131875%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -5560,7 +5560,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>0.6330625000000001%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>0.6860624999999999%</t>
+          <t>68%</t>
         </is>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>0.591%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -5683,7 +5683,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>0.6253749999999999%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>0.6275%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>0.578875%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>0.5764374999999999%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>0.524875%</t>
+          <t>52%</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>0.6478125%</t>
+          <t>64%</t>
         </is>
       </c>
     </row>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>0.6071875%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -5970,7 +5970,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>0.5753125%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>0.588%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -6052,7 +6052,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>0.49268749999999994%</t>
+          <t>49%</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>0.615875%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>0.550875%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -6175,7 +6175,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>0.558125%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>0.536875%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>0.6030625%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>0.5809375%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>0.5895%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -6380,7 +6380,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>0.569375%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -6421,7 +6421,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>0.5629375%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -6462,7 +6462,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>0.5581875%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>0.51275%</t>
+          <t>51%</t>
         </is>
       </c>
     </row>
@@ -6544,7 +6544,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>0.5418125%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>0.5405%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -6626,7 +6626,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>0.576125%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>0.5936875%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>0.54125%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -6749,7 +6749,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>0.578%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -6790,7 +6790,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>0.5300625%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>0.6019375%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -6872,7 +6872,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>0.6235625%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>0.5475625%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -6954,7 +6954,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>0.5434375%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>0.5356875%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -7036,7 +7036,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>0.5604375%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>0.529375%</t>
+          <t>52%</t>
         </is>
       </c>
     </row>
@@ -7118,7 +7118,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>0.57975%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -7159,7 +7159,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>0.557375%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -7200,7 +7200,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>0.5833125%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>0.5672499999999999%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>0.572625%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>0.5605625000000001%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -7364,7 +7364,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>0.5865%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>0.5808125%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7446,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>0.622375%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -7487,7 +7487,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>0.6288750000000001%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -7528,7 +7528,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>0.5833750000000001%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -7569,7 +7569,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>0.54925%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -7610,7 +7610,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>0.5666875%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>0.5485625000000001%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>0.5359375%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -7733,7 +7733,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>0.559375%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -7774,7 +7774,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>0.5464375%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>0.5133125%</t>
+          <t>51%</t>
         </is>
       </c>
     </row>
@@ -7856,7 +7856,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>0.595625%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>0.5091875%</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -7938,7 +7938,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>0.6031875%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -7979,7 +7979,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>0.610875%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -8020,7 +8020,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>0.6130625%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>0.4925%</t>
+          <t>49%</t>
         </is>
       </c>
     </row>
@@ -8102,7 +8102,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>0.5445625%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -8143,7 +8143,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>0.4975%</t>
+          <t>49%</t>
         </is>
       </c>
     </row>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>0.4865625%</t>
+          <t>48%</t>
         </is>
       </c>
     </row>
@@ -8225,7 +8225,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>0.4826875%</t>
+          <t>48%</t>
         </is>
       </c>
     </row>
@@ -8266,7 +8266,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>0.5824375%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>0.47924999999999995%</t>
+          <t>47%</t>
         </is>
       </c>
     </row>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>0.46137500000000004%</t>
+          <t>46%</t>
         </is>
       </c>
     </row>
@@ -8389,7 +8389,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>0.4663125%</t>
+          <t>46%</t>
         </is>
       </c>
     </row>
@@ -8430,7 +8430,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>0.5319375000000001%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>0.4890625%</t>
+          <t>48%</t>
         </is>
       </c>
     </row>
@@ -8512,7 +8512,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>0.525625%</t>
+          <t>52%</t>
         </is>
       </c>
     </row>
@@ -8553,7 +8553,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>0.4886875%</t>
+          <t>48%</t>
         </is>
       </c>
     </row>
@@ -8594,7 +8594,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>0.5454375%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>0.608%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -8676,7 +8676,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>0.5448125%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -8717,7 +8717,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>0.78375%</t>
+          <t>78%</t>
         </is>
       </c>
     </row>
@@ -8758,7 +8758,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>0.462%</t>
+          <t>46%</t>
         </is>
       </c>
     </row>
@@ -8799,7 +8799,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>0.5540625%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -8840,7 +8840,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>0.505125%</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -8881,7 +8881,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>0.4709999999999999%</t>
+          <t>47%</t>
         </is>
       </c>
     </row>
@@ -8922,7 +8922,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>0.5039374999999999%</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -8963,7 +8963,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>0.5140625%</t>
+          <t>51%</t>
         </is>
       </c>
     </row>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>0.57025%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>0.588875%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -9086,7 +9086,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>0.500375%</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -9127,7 +9127,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>0.5173125000000001%</t>
+          <t>51%</t>
         </is>
       </c>
     </row>
@@ -9168,7 +9168,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>0.5889375%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -9209,7 +9209,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>0.5011875%</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -9250,7 +9250,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>0.6356875%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>0.6699375000000001%</t>
+          <t>66%</t>
         </is>
       </c>
     </row>
@@ -9332,7 +9332,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>0.531625%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -9373,7 +9373,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>0.47025000000000006%</t>
+          <t>47%</t>
         </is>
       </c>
     </row>
@@ -9414,7 +9414,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>0.5176875%</t>
+          <t>51%</t>
         </is>
       </c>
     </row>
@@ -9455,7 +9455,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>0.5883125%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -9496,7 +9496,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>0.4806875%</t>
+          <t>48%</t>
         </is>
       </c>
     </row>
@@ -9537,7 +9537,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>0.4685%</t>
+          <t>46%</t>
         </is>
       </c>
     </row>
@@ -9578,7 +9578,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>0.7951249999999999%</t>
+          <t>79%</t>
         </is>
       </c>
     </row>
@@ -9619,7 +9619,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>0.55625%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -9660,7 +9660,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>0.45081249999999995%</t>
+          <t>45%</t>
         </is>
       </c>
     </row>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>0.500625%</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -9742,7 +9742,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>0.479125%</t>
+          <t>47%</t>
         </is>
       </c>
     </row>
@@ -9783,7 +9783,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>0.47975%</t>
+          <t>47%</t>
         </is>
       </c>
     </row>
@@ -9824,7 +9824,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>0.4631874999999999%</t>
+          <t>46%</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>0.545625%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -9906,7 +9906,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>0.47131249999999997%</t>
+          <t>47%</t>
         </is>
       </c>
     </row>
@@ -9947,7 +9947,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>0.8059999999999999%</t>
+          <t>80%</t>
         </is>
       </c>
     </row>
@@ -9988,7 +9988,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>0.523875%</t>
+          <t>52%</t>
         </is>
       </c>
     </row>
@@ -10029,7 +10029,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>0.59125%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -10070,7 +10070,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>0.674125%</t>
+          <t>67%</t>
         </is>
       </c>
     </row>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>0.6913125%</t>
+          <t>69%</t>
         </is>
       </c>
     </row>
@@ -10152,7 +10152,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>0.8140000000000001%</t>
+          <t>81%</t>
         </is>
       </c>
     </row>
@@ -10193,7 +10193,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>0.5351874999999999%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -10234,7 +10234,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>0.8328125%</t>
+          <t>83%</t>
         </is>
       </c>
     </row>
@@ -10275,7 +10275,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>0.5660625%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -10316,7 +10316,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>0.50575%</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -10357,7 +10357,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>0.5516249999999999%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -10398,7 +10398,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>0.47200000000000003%</t>
+          <t>47%</t>
         </is>
       </c>
     </row>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>0.5145624999999999%</t>
+          <t>51%</t>
         </is>
       </c>
     </row>
@@ -10480,7 +10480,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>0.47600000000000003%</t>
+          <t>47%</t>
         </is>
       </c>
     </row>
@@ -10521,7 +10521,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>0.48674999999999996%</t>
+          <t>48%</t>
         </is>
       </c>
     </row>
@@ -10562,7 +10562,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>0.5666875%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -10603,7 +10603,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>0.4605625%</t>
+          <t>46%</t>
         </is>
       </c>
     </row>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>0.538375%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -10685,7 +10685,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>0.6241875%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -10726,7 +10726,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>0.6509375%</t>
+          <t>65%</t>
         </is>
       </c>
     </row>
@@ -10767,7 +10767,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>0.498875%</t>
+          <t>49%</t>
         </is>
       </c>
     </row>
@@ -10808,7 +10808,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>0.512625%</t>
+          <t>51%</t>
         </is>
       </c>
     </row>
@@ -10849,7 +10849,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>0.5671875%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -10890,7 +10890,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>0.480375%</t>
+          <t>48%</t>
         </is>
       </c>
     </row>
@@ -10931,7 +10931,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>0.46918750000000004%</t>
+          <t>46%</t>
         </is>
       </c>
     </row>
@@ -10972,7 +10972,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>0.4854375%</t>
+          <t>48%</t>
         </is>
       </c>
     </row>
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>0.5323749999999999%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11054,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>0.5404375%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>0.4828125%</t>
+          <t>48%</t>
         </is>
       </c>
     </row>
@@ -11136,7 +11136,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>0.5920000000000001%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -11177,7 +11177,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>0.59175%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -11218,7 +11218,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>0.5326875%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -11259,7 +11259,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>0.62625%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -11300,7 +11300,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>0.5613750000000001%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -11341,7 +11341,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>0.5626875%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -11382,7 +11382,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>0.49912499999999993%</t>
+          <t>49%</t>
         </is>
       </c>
     </row>
@@ -11423,7 +11423,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>0.486875%</t>
+          <t>48%</t>
         </is>
       </c>
     </row>
@@ -11464,7 +11464,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>0.5049375%</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -11505,7 +11505,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>0.4806875%</t>
+          <t>48%</t>
         </is>
       </c>
     </row>
@@ -11546,7 +11546,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>0.5465%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -11587,7 +11587,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>0.438125%</t>
+          <t>43%</t>
         </is>
       </c>
     </row>
@@ -11628,7 +11628,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>0.5945%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -11669,7 +11669,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>0.5851875%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -11710,7 +11710,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>0.565625%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>0.6223125%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -11792,7 +11792,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>0.54675%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>0.6106874999999999%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -11874,7 +11874,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>0.57575%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -11915,7 +11915,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>0.593375%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -11956,7 +11956,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>0.5470625%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -11997,7 +11997,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>0.5734375%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -12038,7 +12038,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>0.59%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -12079,7 +12079,7 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>0.6185625%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -12120,7 +12120,7 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>0.5815625%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -12161,7 +12161,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>0.523875%</t>
+          <t>52%</t>
         </is>
       </c>
     </row>
@@ -12202,7 +12202,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>0.5711875000000001%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>0.5629375%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -12284,7 +12284,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>0.658875%</t>
+          <t>65%</t>
         </is>
       </c>
     </row>
@@ -12325,7 +12325,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>0.5956874999999999%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -12366,7 +12366,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>0.5949375%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -12407,7 +12407,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>0.5916250000000001%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -12448,7 +12448,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>0.6729999999999999%</t>
+          <t>67%</t>
         </is>
       </c>
     </row>
@@ -12489,7 +12489,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>0.601%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -12530,7 +12530,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>0.6361875%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -12571,7 +12571,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>0.601625%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -12612,7 +12612,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>0.627375%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -12653,7 +12653,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>0.5890625%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -12694,7 +12694,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>0.5503125%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -12735,7 +12735,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>0.5621250000000001%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -12776,7 +12776,7 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>0.7570625%</t>
+          <t>75%</t>
         </is>
       </c>
     </row>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>0.6601250000000001%</t>
+          <t>66%</t>
         </is>
       </c>
     </row>
@@ -12858,7 +12858,7 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>0.6019375%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -12899,7 +12899,7 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>0.6089375%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -12940,7 +12940,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>0.67025%</t>
+          <t>67%</t>
         </is>
       </c>
     </row>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>0.6655625000000001%</t>
+          <t>66%</t>
         </is>
       </c>
     </row>
@@ -13022,7 +13022,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>0.5670625%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -13063,7 +13063,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>0.6031875%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -13104,7 +13104,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>0.578875%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -13145,7 +13145,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>0.6777500000000001%</t>
+          <t>67%</t>
         </is>
       </c>
     </row>
@@ -13186,7 +13186,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>0.6483125000000001%</t>
+          <t>64%</t>
         </is>
       </c>
     </row>
@@ -13227,7 +13227,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>0.5703125%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -13268,7 +13268,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>0.6406875%</t>
+          <t>64%</t>
         </is>
       </c>
     </row>
@@ -13309,7 +13309,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>0.6511875%</t>
+          <t>65%</t>
         </is>
       </c>
     </row>
@@ -13350,7 +13350,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>0.6661875%</t>
+          <t>66%</t>
         </is>
       </c>
     </row>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>0.67675%</t>
+          <t>67%</t>
         </is>
       </c>
     </row>
@@ -13432,7 +13432,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>0.6785624999999998%</t>
+          <t>67%</t>
         </is>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>0.7096250000000001%</t>
+          <t>70%</t>
         </is>
       </c>
     </row>
@@ -13514,7 +13514,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>0.6976249999999999%</t>
+          <t>69%</t>
         </is>
       </c>
     </row>
@@ -13555,7 +13555,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>0.6794374999999999%</t>
+          <t>67%</t>
         </is>
       </c>
     </row>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>0.7304999999999999%</t>
+          <t>73%</t>
         </is>
       </c>
     </row>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>0.67325%</t>
+          <t>67%</t>
         </is>
       </c>
     </row>
@@ -13678,7 +13678,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>0.6834375%</t>
+          <t>68%</t>
         </is>
       </c>
     </row>
@@ -13719,7 +13719,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>0.5471250000000001%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -13760,7 +13760,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>0.544625%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -13801,7 +13801,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>0.568%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -13842,7 +13842,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>0.5478125%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -13883,7 +13883,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>0.5496875%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -13924,7 +13924,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>0.5455%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -13965,7 +13965,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>0.54%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -14006,7 +14006,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>0.5405625%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -14047,7 +14047,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>0.5356875%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -14088,7 +14088,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>0.5589375%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -14129,7 +14129,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>0.5654375%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -14170,7 +14170,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>0.5611875000000001%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -14211,7 +14211,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>0.5916875%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -14252,7 +14252,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>0.6048125%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -14293,7 +14293,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>0.5609375%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -14334,7 +14334,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>0.5763750000000001%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -14375,7 +14375,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>0.5413125%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -14416,7 +14416,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>0.5763125%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -14457,7 +14457,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>0.55525%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -14498,7 +14498,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>0.51125%</t>
+          <t>51%</t>
         </is>
       </c>
     </row>
@@ -14539,7 +14539,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>0.5457500000000001%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -14580,7 +14580,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>0.5772499999999999%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -14621,7 +14621,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>0.5756874999999999%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -14662,7 +14662,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>0.5546875%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -14703,7 +14703,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>0.6089375%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -14744,7 +14744,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>0.582125%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -14785,7 +14785,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>0.5679375%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -14826,7 +14826,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>0.5671875%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -14867,7 +14867,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>0.52475%</t>
+          <t>52%</t>
         </is>
       </c>
     </row>
@@ -14908,7 +14908,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>0.5794375%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -14949,7 +14949,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>0.643%</t>
+          <t>64%</t>
         </is>
       </c>
     </row>
@@ -14990,7 +14990,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>0.58575%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -15031,7 +15031,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>0.5921875%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -15072,7 +15072,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>0.6066875%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -15113,7 +15113,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>0.6139375%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -15154,7 +15154,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>0.617625%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -15195,7 +15195,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>0.5554375%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -15236,7 +15236,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>0.6155625%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>0.5980625%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -15318,7 +15318,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>0.6403125%</t>
+          <t>64%</t>
         </is>
       </c>
     </row>
@@ -15359,7 +15359,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>0.51425%</t>
+          <t>51%</t>
         </is>
       </c>
     </row>
@@ -15400,7 +15400,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>0.5678125%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -15441,7 +15441,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>0.5965625%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -15482,7 +15482,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>0.5535%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -15523,7 +15523,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>0.5804375%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -15564,7 +15564,7 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>0.53925%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -15605,7 +15605,7 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>0.5779375%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -15646,7 +15646,7 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>0.5888125%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -15687,7 +15687,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>0.5673125%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -15728,7 +15728,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>0.5445625%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>0.56725%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -15810,7 +15810,7 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>0.5196875%</t>
+          <t>51%</t>
         </is>
       </c>
     </row>
@@ -15851,7 +15851,7 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>0.6033750000000001%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -15892,7 +15892,7 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>0.5795%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -15933,7 +15933,7 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>0.5260625%</t>
+          <t>52%</t>
         </is>
       </c>
     </row>
@@ -15974,7 +15974,7 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>0.6338750000000001%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -16015,7 +16015,7 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>0.593875%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -16056,7 +16056,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>0.5651875%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -16097,7 +16097,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>0.6263125%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -16138,7 +16138,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>0.578875%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -16179,7 +16179,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>0.5550625%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -16220,7 +16220,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>0.5683750000000001%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -16261,7 +16261,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>0.577875%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -16302,7 +16302,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>0.6317499999999999%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -16343,7 +16343,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>0.543875%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -16384,7 +16384,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>0.6203749999999999%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -16425,7 +16425,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>0.581875%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -16466,7 +16466,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>0.46974999999999995%</t>
+          <t>46%</t>
         </is>
       </c>
     </row>
@@ -16507,7 +16507,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>0.5522499999999999%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -16548,7 +16548,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>0.6034999999999999%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -16589,7 +16589,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>0.56825%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -16630,7 +16630,7 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>0.5536249999999999%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -16671,7 +16671,7 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>0.5748125000000001%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -16712,7 +16712,7 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>0.5896250000000001%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -16753,7 +16753,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>0.570625%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -16794,7 +16794,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>0.5464375%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -16835,7 +16835,7 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>0.5183125%</t>
+          <t>51%</t>
         </is>
       </c>
     </row>
@@ -16876,7 +16876,7 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>0.57975%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>0.5340625%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -16958,7 +16958,7 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>0.572625%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -16999,7 +16999,7 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>0.546875%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -17040,7 +17040,7 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>0.5466249999999999%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -17081,7 +17081,7 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>0.5279375000000001%</t>
+          <t>52%</t>
         </is>
       </c>
     </row>
@@ -17122,7 +17122,7 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>0.5589999999999999%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -17163,7 +17163,7 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>0.6099375%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -17204,7 +17204,7 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>0.5945%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -17245,7 +17245,7 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>0.6516874999999999%</t>
+          <t>65%</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17286,7 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>0.560125%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -17327,7 +17327,7 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>0.5205%</t>
+          <t>52%</t>
         </is>
       </c>
     </row>
@@ -17368,7 +17368,7 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>0.5529999999999999%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -17409,7 +17409,7 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>0.6256875%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -17450,7 +17450,7 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>0.635%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -17491,7 +17491,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>0.6445624999999999%</t>
+          <t>64%</t>
         </is>
       </c>
     </row>
@@ -17532,7 +17532,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>0.6304375%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -17573,7 +17573,7 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>0.6618125%</t>
+          <t>66%</t>
         </is>
       </c>
     </row>
@@ -17614,7 +17614,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>0.6741874999999999%</t>
+          <t>67%</t>
         </is>
       </c>
     </row>
@@ -17655,7 +17655,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>0.6830625%</t>
+          <t>68%</t>
         </is>
       </c>
     </row>
@@ -17696,7 +17696,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>0.564375%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -17737,7 +17737,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>0.610125%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -17778,7 +17778,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>0.5795%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -17819,7 +17819,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>0.5851875%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -17860,7 +17860,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>0.5533125%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -17901,7 +17901,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>0.6064375%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -17942,7 +17942,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>0.546375%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -17983,7 +17983,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>0.6023125%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -18024,7 +18024,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>0.5860625%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -18065,7 +18065,7 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>0.585875%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -18106,7 +18106,7 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>0.5065%</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -18147,7 +18147,7 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>0.547375%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -18188,7 +18188,7 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>0.57675%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -18229,7 +18229,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>0.5245624999999999%</t>
+          <t>52%</t>
         </is>
       </c>
     </row>
@@ -18270,7 +18270,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>0.5766249999999999%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -18311,7 +18311,7 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>0.5583125%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -18352,7 +18352,7 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>0.57875%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -18393,7 +18393,7 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>0.6238125%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -18434,7 +18434,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>0.5405625000000001%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -18475,7 +18475,7 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>0.5884375%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -18516,7 +18516,7 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>0.54775%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -18557,7 +18557,7 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>0.6004375000000001%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -18598,7 +18598,7 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>0.5084375%</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -18639,7 +18639,7 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>0.6984999999999999%</t>
+          <t>69%</t>
         </is>
       </c>
     </row>
@@ -18680,7 +18680,7 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>0.7383124999999999%</t>
+          <t>73%</t>
         </is>
       </c>
     </row>
@@ -18721,7 +18721,7 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>0.6772499999999999%</t>
+          <t>67%</t>
         </is>
       </c>
     </row>
@@ -18762,7 +18762,7 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>0.71675%</t>
+          <t>71%</t>
         </is>
       </c>
     </row>
@@ -18803,7 +18803,7 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>0.5358750000000001%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -18844,7 +18844,7 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>0.6202500000000001%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -18885,7 +18885,7 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>0.6344375%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -18926,7 +18926,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>0.61675%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>0.6164999999999999%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -19008,7 +19008,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>0.6128750000000001%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -19049,7 +19049,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>0.60125%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -19090,7 +19090,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>0.7573124999999998%</t>
+          <t>75%</t>
         </is>
       </c>
     </row>
@@ -19131,7 +19131,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>0.522625%</t>
+          <t>52%</t>
         </is>
       </c>
     </row>
@@ -19172,7 +19172,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>0.5361875%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -19213,7 +19213,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>0.6393125000000001%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -19254,7 +19254,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>0.6243125%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -19295,7 +19295,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>0.7123750000000001%</t>
+          <t>71%</t>
         </is>
       </c>
     </row>
@@ -19336,7 +19336,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>0.7158125000000001%</t>
+          <t>71%</t>
         </is>
       </c>
     </row>
@@ -19377,7 +19377,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>0.48950000000000005%</t>
+          <t>48%</t>
         </is>
       </c>
     </row>
@@ -19418,7 +19418,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>0.6920000000000001%</t>
+          <t>69%</t>
         </is>
       </c>
     </row>
@@ -19459,7 +19459,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>0.576125%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -19500,7 +19500,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>0.5675625%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -19541,7 +19541,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>0.583375%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -19582,7 +19582,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>0.5407500000000001%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -19623,7 +19623,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>0.58825%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -19664,7 +19664,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>0.5688125%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -19705,7 +19705,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>0.597125%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -19746,7 +19746,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>0.5781875%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -19787,7 +19787,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>0.5643125%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -19828,7 +19828,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>0.5713750000000001%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -19869,7 +19869,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>0.5870624999999999%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -19910,7 +19910,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>0.547875%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -19951,7 +19951,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>0.6319375%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -19992,7 +19992,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>0.6569375%</t>
+          <t>65%</t>
         </is>
       </c>
     </row>
@@ -20033,7 +20033,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>0.550625%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -20074,7 +20074,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>0.556%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -20115,7 +20115,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>0.5649375%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -20156,7 +20156,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>0.5045625%</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -20197,7 +20197,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>0.5117499999999999%</t>
+          <t>51%</t>
         </is>
       </c>
     </row>
@@ -20238,7 +20238,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>0.595125%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -20279,7 +20279,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>0.6394375%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -20320,7 +20320,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>0.5226875%</t>
+          <t>52%</t>
         </is>
       </c>
     </row>
@@ -20361,7 +20361,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>0.5922499999999999%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -20402,7 +20402,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>0.5466875%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -20443,7 +20443,7 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>0.6225%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -20484,7 +20484,7 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>0.556625%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -20525,7 +20525,7 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>0.553875%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -20566,7 +20566,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>0.56%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -20607,7 +20607,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>0.5976874999999999%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -20648,7 +20648,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>0.6090625%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -20689,7 +20689,7 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>0.56525%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -20730,7 +20730,7 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>0.5429999999999999%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -20771,7 +20771,7 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>0.5975%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -20812,7 +20812,7 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>0.5798125000000001%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -20853,7 +20853,7 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>0.52425%</t>
+          <t>52%</t>
         </is>
       </c>
     </row>
@@ -20894,7 +20894,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>0.57475%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -20935,7 +20935,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>0.55825%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -20976,7 +20976,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>0.5638125%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -21017,7 +21017,7 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>0.6432499999999999%</t>
+          <t>64%</t>
         </is>
       </c>
     </row>
@@ -21058,7 +21058,7 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>0.6194375%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -21099,7 +21099,7 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>0.648375%</t>
+          <t>64%</t>
         </is>
       </c>
     </row>
@@ -21140,7 +21140,7 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>0.5773125%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -21181,7 +21181,7 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>0.54875%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -21222,7 +21222,7 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>0.56125%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -21263,7 +21263,7 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>0.5665625%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -21304,7 +21304,7 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>0.5020625%</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -21345,7 +21345,7 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>0.543625%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -21386,7 +21386,7 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>0.6171875%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -21427,7 +21427,7 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>0.55025%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -21468,7 +21468,7 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>0.53175%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -21509,7 +21509,7 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>0.6046875%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -21550,7 +21550,7 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>0.6273125%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -21591,7 +21591,7 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>0.6508125%</t>
+          <t>65%</t>
         </is>
       </c>
     </row>
@@ -21632,7 +21632,7 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>0.615625%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -21673,7 +21673,7 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>0.6530625000000001%</t>
+          <t>65%</t>
         </is>
       </c>
     </row>
@@ -21714,7 +21714,7 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>0.587375%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -21755,7 +21755,7 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>0.6488124999999999%</t>
+          <t>64%</t>
         </is>
       </c>
     </row>
@@ -21796,7 +21796,7 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>0.643375%</t>
+          <t>64%</t>
         </is>
       </c>
     </row>
@@ -21837,7 +21837,7 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>0.6186875000000001%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -21878,7 +21878,7 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>0.6091249999999999%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -21919,7 +21919,7 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>0.58575%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -21960,7 +21960,7 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>0.6371249999999999%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -22001,7 +22001,7 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>0.6303125%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -22042,7 +22042,7 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>0.5274375%</t>
+          <t>52%</t>
         </is>
       </c>
     </row>
@@ -22083,7 +22083,7 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>0.5876250000000001%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -22124,7 +22124,7 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>0.6326875%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -22165,7 +22165,7 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>0.54675%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -22206,7 +22206,7 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>0.5561875%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -22247,7 +22247,7 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>0.5628125%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -22288,7 +22288,7 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>0.5684999999999999%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -22329,7 +22329,7 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>0.5642499999999999%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -22370,7 +22370,7 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>0.5769375%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -22411,7 +22411,7 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>0.5730625%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -22452,7 +22452,7 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>0.6005625%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -22493,7 +22493,7 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>0.58375%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -22534,7 +22534,7 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>0.610875%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -22575,7 +22575,7 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>0.63575%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -22616,7 +22616,7 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>0.6244375%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -22657,7 +22657,7 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>0.5971875%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -22698,7 +22698,7 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>0.5763750000000001%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -22739,7 +22739,7 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>0.5715%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -22780,7 +22780,7 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>0.603125%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -22821,7 +22821,7 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>0.593125%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -22862,7 +22862,7 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>0.459875%</t>
+          <t>45%</t>
         </is>
       </c>
     </row>
@@ -22903,7 +22903,7 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>0.4815625%</t>
+          <t>48%</t>
         </is>
       </c>
     </row>
@@ -22944,7 +22944,7 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>0.59075%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -22985,7 +22985,7 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>0.5828125%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -23026,7 +23026,7 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>0.636375%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -23067,7 +23067,7 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>0.5684375%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -23108,7 +23108,7 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>0.6145%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -23149,7 +23149,7 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>0.61575%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -23190,7 +23190,7 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>0.6983750000000001%</t>
+          <t>69%</t>
         </is>
       </c>
     </row>
@@ -23231,7 +23231,7 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>0.531625%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -23272,7 +23272,7 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>0.6305625%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -23313,7 +23313,7 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>0.61475%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -23354,7 +23354,7 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>0.5455%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -23395,7 +23395,7 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>0.5720000000000001%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -23436,7 +23436,7 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>0.5373125000000001%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -23477,7 +23477,7 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>0.6311249999999999%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -23518,7 +23518,7 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>0.5883125%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -23559,7 +23559,7 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>0.6125%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -23600,7 +23600,7 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>0.5823125%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>0.6463125%</t>
+          <t>64%</t>
         </is>
       </c>
     </row>
@@ -23682,7 +23682,7 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>0.5588124999999999%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -23723,7 +23723,7 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>0.5685625000000001%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -23764,7 +23764,7 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>0.627%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -23805,7 +23805,7 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>0.48625%</t>
+          <t>48%</t>
         </is>
       </c>
     </row>
@@ -23846,7 +23846,7 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>0.484%</t>
+          <t>48%</t>
         </is>
       </c>
     </row>
@@ -23887,7 +23887,7 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>0.535%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -23928,7 +23928,7 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>0.5910625%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -23969,7 +23969,7 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>0.5645625%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -24010,7 +24010,7 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>0.639%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -24051,7 +24051,7 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>0.5885625%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -24092,7 +24092,7 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>0.600625%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -24133,7 +24133,7 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>0.5805625000000001%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -24174,7 +24174,7 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>0.6189374999999999%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -24215,7 +24215,7 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>0.6396875%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -24256,7 +24256,7 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>0.6225%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -24297,7 +24297,7 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>0.5809375%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -24338,7 +24338,7 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>0.5763750000000001%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -24379,7 +24379,7 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>0.5715625%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -24420,7 +24420,7 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>0.6295625%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -24461,7 +24461,7 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>0.609125%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -24502,7 +24502,7 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>0.537875%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -24543,7 +24543,7 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>0.6159375%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -24584,7 +24584,7 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>0.5234375%</t>
+          <t>52%</t>
         </is>
       </c>
     </row>
@@ -24625,7 +24625,7 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>0.5679375%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -24666,7 +24666,7 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>0.585125%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -24707,7 +24707,7 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>0.561625%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -24748,7 +24748,7 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>0.5805%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -24789,7 +24789,7 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>0.6547499999999999%</t>
+          <t>65%</t>
         </is>
       </c>
     </row>
@@ -24830,7 +24830,7 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>0.5703125%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -24871,7 +24871,7 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>0.618%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -24912,7 +24912,7 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>0.602375%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -24953,7 +24953,7 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>0.616625%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -24994,7 +24994,7 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>0.6777500000000001%</t>
+          <t>67%</t>
         </is>
       </c>
     </row>
@@ -25035,7 +25035,7 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>0.5613750000000001%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -25076,7 +25076,7 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>0.623%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -25117,7 +25117,7 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>0.5851875%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -25158,7 +25158,7 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>0.628%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -25199,7 +25199,7 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>0.6536875000000001%</t>
+          <t>65%</t>
         </is>
       </c>
     </row>
@@ -25240,7 +25240,7 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>0.6543125000000001%</t>
+          <t>65%</t>
         </is>
       </c>
     </row>
@@ -25281,7 +25281,7 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>0.56875%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -25322,7 +25322,7 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>0.5308125%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -25363,7 +25363,7 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>0.5433749999999999%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -25404,7 +25404,7 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>0.5765625%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -25445,7 +25445,7 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>0.51225%</t>
+          <t>51%</t>
         </is>
       </c>
     </row>
@@ -25486,7 +25486,7 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>0.602125%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -25527,7 +25527,7 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>0.55975%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -25568,7 +25568,7 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>0.576%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -25609,7 +25609,7 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>0.618%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -25650,7 +25650,7 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>0.5378125%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -25691,7 +25691,7 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>0.600375%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -25732,7 +25732,7 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>0.590125%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -25773,7 +25773,7 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>0.6493125000000001%</t>
+          <t>64%</t>
         </is>
       </c>
     </row>
@@ -25814,7 +25814,7 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>0.6076874999999999%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -25855,7 +25855,7 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>0.5299375%</t>
+          <t>52%</t>
         </is>
       </c>
     </row>
@@ -25896,7 +25896,7 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>0.5646875%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -25937,7 +25937,7 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>0.6271875%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -25978,7 +25978,7 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>0.56625%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -26019,7 +26019,7 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>0.5976874999999999%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -26060,7 +26060,7 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>0.6816249999999999%</t>
+          <t>68%</t>
         </is>
       </c>
     </row>
@@ -26101,7 +26101,7 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>0.68425%</t>
+          <t>68%</t>
         </is>
       </c>
     </row>
@@ -26142,7 +26142,7 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>0.6616875%</t>
+          <t>66%</t>
         </is>
       </c>
     </row>
@@ -26183,7 +26183,7 @@
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>0.591%</t>
+          <t>59%</t>
         </is>
       </c>
     </row>
@@ -26224,7 +26224,7 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>0.5891249999999999%</t>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -26265,7 +26265,7 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>0.5796250000000001%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -26306,7 +26306,7 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>0.7098125000000001%</t>
+          <t>70%</t>
         </is>
       </c>
     </row>
@@ -26347,7 +26347,7 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>9%</t>
         </is>
       </c>
     </row>
@@ -26388,7 +26388,7 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>0.8619374999999999%</t>
+          <t>86%</t>
         </is>
       </c>
     </row>

--- a/sat_condensed.xlsx
+++ b/sat_condensed.xlsx
@@ -29,12 +29,17 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -26342,7 +26348,7 @@
       <c r="G632" t="n">
         <v>723.8</v>
       </c>
-      <c r="H632" t="n">
+      <c r="H632" s="2" t="n">
         <v>1440</v>
       </c>
       <c r="I632" t="inlineStr">

--- a/sat_condensed.xlsx
+++ b/sat_condensed.xlsx
@@ -29,17 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00008000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -60,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -26348,7 +26342,7 @@
       <c r="G632" t="n">
         <v>723.8</v>
       </c>
-      <c r="H632" s="2" t="n">
+      <c r="H632" t="n">
         <v>1440</v>
       </c>
       <c r="I632" t="inlineStr">

--- a/sat_condensed.xlsx
+++ b/sat_condensed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I633"/>
+  <dimension ref="A1:J633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>SAT Score Percentage</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>SAT Grade Status</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -520,6 +525,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -561,6 +567,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -602,6 +609,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -643,6 +651,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -684,6 +693,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -725,6 +735,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -766,6 +777,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -807,6 +819,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -848,6 +861,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -889,6 +903,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -930,6 +945,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -971,6 +987,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1012,6 +1029,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1053,6 +1071,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1094,6 +1113,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1135,6 +1155,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1176,6 +1197,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1217,6 +1239,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1258,6 +1281,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1299,6 +1323,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1340,6 +1365,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1381,6 +1407,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1422,6 +1449,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1463,6 +1491,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1504,6 +1533,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1545,6 +1575,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1586,6 +1617,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1627,6 +1659,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1668,6 +1701,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1709,6 +1743,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1750,6 +1785,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1791,6 +1827,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1832,6 +1869,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1873,6 +1911,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1914,6 +1953,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1955,6 +1995,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1996,6 +2037,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2037,6 +2079,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2078,6 +2121,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2119,6 +2163,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2160,6 +2205,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2201,6 +2247,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2242,6 +2289,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2283,6 +2331,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2324,6 +2373,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2365,6 +2415,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2406,6 +2457,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2447,6 +2499,7 @@
           <t>49%</t>
         </is>
       </c>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2488,6 +2541,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2529,6 +2583,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2570,6 +2625,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2611,6 +2667,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2652,6 +2709,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2693,6 +2751,7 @@
           <t>66%</t>
         </is>
       </c>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2734,6 +2793,7 @@
           <t>76%</t>
         </is>
       </c>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2775,6 +2835,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2816,6 +2877,7 @@
           <t>68%</t>
         </is>
       </c>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2857,6 +2919,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2898,6 +2961,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2939,6 +3003,7 @@
           <t>72%</t>
         </is>
       </c>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2980,6 +3045,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3021,6 +3087,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3062,6 +3129,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3103,6 +3171,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3144,6 +3213,7 @@
           <t>71%</t>
         </is>
       </c>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3185,6 +3255,7 @@
           <t>69%</t>
         </is>
       </c>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3226,6 +3297,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3267,6 +3339,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3308,6 +3381,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3349,6 +3423,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3390,6 +3465,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3431,6 +3507,7 @@
           <t>75%</t>
         </is>
       </c>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3472,6 +3549,7 @@
           <t>70%</t>
         </is>
       </c>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3513,6 +3591,7 @@
           <t>68%</t>
         </is>
       </c>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3554,6 +3633,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3595,6 +3675,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3636,6 +3717,7 @@
           <t>68%</t>
         </is>
       </c>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3677,6 +3759,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3718,6 +3801,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3759,6 +3843,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3800,6 +3885,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3841,6 +3927,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3882,6 +3969,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3923,6 +4011,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3964,6 +4053,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4005,6 +4095,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4046,6 +4137,7 @@
           <t>49%</t>
         </is>
       </c>
+      <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4087,6 +4179,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4128,6 +4221,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4169,6 +4263,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4210,6 +4305,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4251,6 +4347,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4292,6 +4389,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4333,6 +4431,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4374,6 +4473,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4415,6 +4515,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4456,6 +4557,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4497,6 +4599,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4538,6 +4641,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4579,6 +4683,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4620,6 +4725,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4661,6 +4767,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4702,6 +4809,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4743,6 +4851,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4784,6 +4893,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4825,6 +4935,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4866,6 +4977,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4907,6 +5019,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4948,6 +5061,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4989,6 +5103,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5030,6 +5145,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5071,6 +5187,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5112,6 +5229,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5153,6 +5271,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5194,6 +5313,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5235,6 +5355,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5276,6 +5397,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5317,6 +5439,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5358,6 +5481,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5399,6 +5523,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5440,6 +5565,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5481,6 +5607,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5522,6 +5649,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5563,6 +5691,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5604,6 +5733,7 @@
           <t>68%</t>
         </is>
       </c>
+      <c r="J126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5645,6 +5775,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5686,6 +5817,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5727,6 +5859,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5768,6 +5901,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5809,6 +5943,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5850,6 +5985,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5891,6 +6027,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5932,6 +6069,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5973,6 +6111,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6014,6 +6153,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6055,6 +6195,7 @@
           <t>49%</t>
         </is>
       </c>
+      <c r="J137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6096,6 +6237,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6137,6 +6279,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6178,6 +6321,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6219,6 +6363,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6260,6 +6405,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6301,6 +6447,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6342,6 +6489,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6383,6 +6531,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6424,6 +6573,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6465,6 +6615,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6506,6 +6657,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6547,6 +6699,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6588,6 +6741,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6629,6 +6783,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6670,6 +6825,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6711,6 +6867,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6752,6 +6909,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6793,6 +6951,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6834,6 +6993,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6875,6 +7035,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6916,6 +7077,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6957,6 +7119,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6998,6 +7161,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7039,6 +7203,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7080,6 +7245,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7121,6 +7287,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7162,6 +7329,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7203,6 +7371,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7244,6 +7413,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7285,6 +7455,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7326,6 +7497,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7367,6 +7539,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7408,6 +7581,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7449,6 +7623,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7490,6 +7665,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7531,6 +7707,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7572,6 +7749,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7613,6 +7791,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7654,6 +7833,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7695,6 +7875,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7736,6 +7917,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7777,6 +7959,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7818,6 +8001,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -7859,6 +8043,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -7900,6 +8085,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -7941,6 +8127,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -7982,6 +8169,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -8023,6 +8211,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8064,6 +8253,7 @@
           <t>49%</t>
         </is>
       </c>
+      <c r="J186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8105,6 +8295,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8146,6 +8337,7 @@
           <t>49%</t>
         </is>
       </c>
+      <c r="J188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -8187,6 +8379,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8228,6 +8421,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8269,6 +8463,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8310,6 +8505,7 @@
           <t>47%</t>
         </is>
       </c>
+      <c r="J192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8351,6 +8547,7 @@
           <t>46%</t>
         </is>
       </c>
+      <c r="J193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8392,6 +8589,7 @@
           <t>46%</t>
         </is>
       </c>
+      <c r="J194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8433,6 +8631,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8474,6 +8673,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8515,6 +8715,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8556,6 +8757,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8597,6 +8799,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8638,6 +8841,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8679,6 +8883,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8720,6 +8925,7 @@
           <t>78%</t>
         </is>
       </c>
+      <c r="J202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -8761,6 +8967,7 @@
           <t>46%</t>
         </is>
       </c>
+      <c r="J203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -8802,6 +9009,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -8843,6 +9051,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -8884,6 +9093,7 @@
           <t>47%</t>
         </is>
       </c>
+      <c r="J206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -8925,6 +9135,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -8966,6 +9177,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -9007,6 +9219,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -9048,6 +9261,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -9089,6 +9303,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -9130,6 +9345,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -9171,6 +9387,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -9212,6 +9429,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -9253,6 +9471,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -9294,6 +9513,7 @@
           <t>66%</t>
         </is>
       </c>
+      <c r="J216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -9335,6 +9555,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -9376,6 +9597,7 @@
           <t>47%</t>
         </is>
       </c>
+      <c r="J218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -9417,6 +9639,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -9458,6 +9681,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -9499,6 +9723,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -9540,6 +9765,7 @@
           <t>46%</t>
         </is>
       </c>
+      <c r="J222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -9581,6 +9807,7 @@
           <t>79%</t>
         </is>
       </c>
+      <c r="J223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -9622,6 +9849,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -9663,6 +9891,7 @@
           <t>45%</t>
         </is>
       </c>
+      <c r="J225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -9704,6 +9933,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -9745,6 +9975,7 @@
           <t>47%</t>
         </is>
       </c>
+      <c r="J227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -9786,6 +10017,7 @@
           <t>47%</t>
         </is>
       </c>
+      <c r="J228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -9827,6 +10059,7 @@
           <t>46%</t>
         </is>
       </c>
+      <c r="J229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -9868,6 +10101,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -9909,6 +10143,7 @@
           <t>47%</t>
         </is>
       </c>
+      <c r="J231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -9950,6 +10185,7 @@
           <t>80%</t>
         </is>
       </c>
+      <c r="J232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -9991,6 +10227,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -10032,6 +10269,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -10073,6 +10311,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -10114,6 +10353,7 @@
           <t>69%</t>
         </is>
       </c>
+      <c r="J236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -10155,6 +10395,7 @@
           <t>81%</t>
         </is>
       </c>
+      <c r="J237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -10196,6 +10437,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -10237,6 +10479,7 @@
           <t>83%</t>
         </is>
       </c>
+      <c r="J239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -10278,6 +10521,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -10319,6 +10563,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -10360,6 +10605,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -10401,6 +10647,7 @@
           <t>47%</t>
         </is>
       </c>
+      <c r="J243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -10442,6 +10689,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -10483,6 +10731,7 @@
           <t>47%</t>
         </is>
       </c>
+      <c r="J245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -10524,6 +10773,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -10565,6 +10815,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -10606,6 +10857,7 @@
           <t>46%</t>
         </is>
       </c>
+      <c r="J248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -10647,6 +10899,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -10688,6 +10941,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -10729,6 +10983,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -10770,6 +11025,7 @@
           <t>49%</t>
         </is>
       </c>
+      <c r="J252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -10811,6 +11067,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -10852,6 +11109,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -10893,6 +11151,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -10934,6 +11193,7 @@
           <t>46%</t>
         </is>
       </c>
+      <c r="J256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -10975,6 +11235,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -11016,6 +11277,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -11057,6 +11319,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -11098,6 +11361,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -11139,6 +11403,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -11180,6 +11445,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -11221,6 +11487,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -11262,6 +11529,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -11303,6 +11571,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -11344,6 +11613,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -11385,6 +11655,7 @@
           <t>49%</t>
         </is>
       </c>
+      <c r="J267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -11426,6 +11697,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -11467,6 +11739,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -11508,6 +11781,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -11549,6 +11823,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -11590,6 +11865,7 @@
           <t>43%</t>
         </is>
       </c>
+      <c r="J272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -11631,6 +11907,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -11672,6 +11949,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -11713,6 +11991,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -11754,6 +12033,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -11795,6 +12075,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -11836,6 +12117,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -11877,6 +12159,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -11918,6 +12201,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -11959,6 +12243,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -12000,6 +12285,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -12041,6 +12327,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -12082,6 +12369,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -12123,6 +12411,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -12164,6 +12453,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -12205,6 +12495,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -12246,6 +12537,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -12287,6 +12579,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -12328,6 +12621,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -12369,6 +12663,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -12410,6 +12705,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -12451,6 +12747,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -12492,6 +12789,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -12533,6 +12831,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -12574,6 +12873,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -12615,6 +12915,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -12656,6 +12957,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -12697,6 +12999,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -12738,6 +13041,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -12779,6 +13083,7 @@
           <t>75%</t>
         </is>
       </c>
+      <c r="J301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -12820,6 +13125,7 @@
           <t>66%</t>
         </is>
       </c>
+      <c r="J302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -12861,6 +13167,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -12902,6 +13209,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -12943,6 +13251,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -12984,6 +13293,7 @@
           <t>66%</t>
         </is>
       </c>
+      <c r="J306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -13025,6 +13335,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -13066,6 +13377,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -13107,6 +13419,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -13148,6 +13461,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -13189,6 +13503,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -13230,6 +13545,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -13271,6 +13587,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -13312,6 +13629,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -13353,6 +13671,7 @@
           <t>66%</t>
         </is>
       </c>
+      <c r="J315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -13394,6 +13713,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -13435,6 +13755,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -13476,6 +13797,7 @@
           <t>70%</t>
         </is>
       </c>
+      <c r="J318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -13517,6 +13839,7 @@
           <t>69%</t>
         </is>
       </c>
+      <c r="J319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -13558,6 +13881,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -13599,6 +13923,7 @@
           <t>73%</t>
         </is>
       </c>
+      <c r="J321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -13640,6 +13965,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -13681,6 +14007,7 @@
           <t>68%</t>
         </is>
       </c>
+      <c r="J323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -13722,6 +14049,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -13763,6 +14091,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -13804,6 +14133,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -13845,6 +14175,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -13886,6 +14217,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -13927,6 +14259,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -13968,6 +14301,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -14009,6 +14343,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -14050,6 +14385,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -14091,6 +14427,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -14132,6 +14469,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -14173,6 +14511,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -14214,6 +14553,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -14255,6 +14595,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -14296,6 +14637,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -14337,6 +14679,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -14378,6 +14721,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -14419,6 +14763,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -14460,6 +14805,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -14501,6 +14847,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -14542,6 +14889,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -14583,6 +14931,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -14624,6 +14973,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -14665,6 +15015,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -14706,6 +15057,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -14747,6 +15099,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -14788,6 +15141,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -14829,6 +15183,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -14870,6 +15225,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -14911,6 +15267,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -14952,6 +15309,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -14993,6 +15351,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -15034,6 +15393,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -15075,6 +15435,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -15116,6 +15477,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -15157,6 +15519,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -15198,6 +15561,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -15239,6 +15603,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -15280,6 +15645,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -15321,6 +15687,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -15362,6 +15729,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -15403,6 +15771,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -15444,6 +15813,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -15485,6 +15855,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -15526,6 +15897,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -15567,6 +15939,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -15608,6 +15981,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -15649,6 +16023,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -15690,6 +16065,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -15731,6 +16107,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -15772,6 +16149,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -15813,6 +16191,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -15854,6 +16233,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -15895,6 +16275,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -15936,6 +16317,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -15977,6 +16359,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -16018,6 +16401,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -16059,6 +16443,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -16100,6 +16485,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -16141,6 +16527,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -16182,6 +16569,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -16223,6 +16611,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -16264,6 +16653,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -16305,6 +16695,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -16346,6 +16737,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -16387,6 +16779,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -16428,6 +16821,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -16469,6 +16863,7 @@
           <t>46%</t>
         </is>
       </c>
+      <c r="J391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -16510,6 +16905,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -16551,6 +16947,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -16592,6 +16989,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -16633,6 +17031,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -16674,6 +17073,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -16715,6 +17115,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -16756,6 +17157,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -16797,6 +17199,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -16838,6 +17241,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -16879,6 +17283,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -16920,6 +17325,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -16961,6 +17367,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -17002,6 +17409,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -17043,6 +17451,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -17084,6 +17493,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -17125,6 +17535,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -17166,6 +17577,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -17207,6 +17619,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -17248,6 +17661,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -17289,6 +17703,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -17330,6 +17745,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -17371,6 +17787,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -17412,6 +17829,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -17453,6 +17871,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -17494,6 +17913,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -17535,6 +17955,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -17576,6 +17997,7 @@
           <t>66%</t>
         </is>
       </c>
+      <c r="J418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -17617,6 +18039,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -17658,6 +18081,7 @@
           <t>68%</t>
         </is>
       </c>
+      <c r="J420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -17699,6 +18123,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -17740,6 +18165,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -17781,6 +18207,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -17822,6 +18249,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -17863,6 +18291,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -17904,6 +18333,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -17945,6 +18375,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -17986,6 +18417,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -18027,6 +18459,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -18068,6 +18501,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -18109,6 +18543,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -18150,6 +18585,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -18191,6 +18627,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -18232,6 +18669,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -18273,6 +18711,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -18314,6 +18753,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -18355,6 +18795,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -18396,6 +18837,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -18437,6 +18879,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -18478,6 +18921,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -18519,6 +18963,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -18560,6 +19005,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -18601,6 +19047,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -18642,6 +19089,7 @@
           <t>69%</t>
         </is>
       </c>
+      <c r="J444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -18683,6 +19131,7 @@
           <t>73%</t>
         </is>
       </c>
+      <c r="J445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -18724,6 +19173,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -18765,6 +19215,7 @@
           <t>71%</t>
         </is>
       </c>
+      <c r="J447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -18806,6 +19257,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -18847,6 +19299,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -18888,6 +19341,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -18929,6 +19383,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -18970,6 +19425,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -19011,6 +19467,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -19052,6 +19509,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -19093,6 +19551,7 @@
           <t>75%</t>
         </is>
       </c>
+      <c r="J455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -19134,6 +19593,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -19175,6 +19635,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -19216,6 +19677,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -19257,6 +19719,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -19298,6 +19761,7 @@
           <t>71%</t>
         </is>
       </c>
+      <c r="J460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -19339,6 +19803,7 @@
           <t>71%</t>
         </is>
       </c>
+      <c r="J461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -19380,6 +19845,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -19421,6 +19887,7 @@
           <t>69%</t>
         </is>
       </c>
+      <c r="J463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -19462,6 +19929,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -19503,6 +19971,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -19544,6 +20013,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -19585,6 +20055,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -19626,6 +20097,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -19667,6 +20139,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -19708,6 +20181,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -19749,6 +20223,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -19790,6 +20265,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -19831,6 +20307,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -19872,6 +20349,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -19913,6 +20391,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -19954,6 +20433,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -19995,6 +20475,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -20036,6 +20517,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -20077,6 +20559,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -20118,6 +20601,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -20159,6 +20643,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -20200,6 +20685,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -20241,6 +20727,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -20282,6 +20769,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -20323,6 +20811,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -20364,6 +20853,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -20405,6 +20895,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -20446,6 +20937,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -20487,6 +20979,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -20528,6 +21021,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -20569,6 +21063,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -20610,6 +21105,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -20651,6 +21147,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -20692,6 +21189,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -20733,6 +21231,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -20774,6 +21273,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -20815,6 +21315,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -20856,6 +21357,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -20897,6 +21399,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -20938,6 +21441,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -20979,6 +21483,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -21020,6 +21525,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -21061,6 +21567,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -21102,6 +21609,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -21143,6 +21651,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -21184,6 +21693,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -21225,6 +21735,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -21266,6 +21777,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -21307,6 +21819,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -21348,6 +21861,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -21389,6 +21903,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -21430,6 +21945,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -21471,6 +21987,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -21512,6 +22029,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -21553,6 +22071,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -21594,6 +22113,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -21635,6 +22155,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -21676,6 +22197,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -21717,6 +22239,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -21758,6 +22281,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -21799,6 +22323,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -21840,6 +22365,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -21881,6 +22407,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -21922,6 +22449,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -21963,6 +22491,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -22004,6 +22533,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -22045,6 +22575,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -22086,6 +22617,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -22127,6 +22659,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -22168,6 +22701,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -22209,6 +22743,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -22250,6 +22785,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -22291,6 +22827,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -22332,6 +22869,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -22373,6 +22911,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -22414,6 +22953,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -22455,6 +22995,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -22496,6 +23037,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -22537,6 +23079,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -22578,6 +23121,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -22619,6 +23163,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -22660,6 +23205,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -22701,6 +23247,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -22742,6 +23289,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -22783,6 +23331,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -22824,6 +23373,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -22865,6 +23415,7 @@
           <t>45%</t>
         </is>
       </c>
+      <c r="J547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -22906,6 +23457,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -22947,6 +23499,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -22988,6 +23541,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -23029,6 +23583,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -23070,6 +23625,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -23111,6 +23667,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -23152,6 +23709,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -23193,6 +23751,7 @@
           <t>69%</t>
         </is>
       </c>
+      <c r="J555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -23234,6 +23793,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -23275,6 +23835,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -23316,6 +23877,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -23357,6 +23919,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -23398,6 +23961,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -23439,6 +24003,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -23480,6 +24045,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -23521,6 +24087,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -23562,6 +24129,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -23603,6 +24171,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -23644,6 +24213,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -23685,6 +24255,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -23726,6 +24297,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -23767,6 +24339,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -23808,6 +24381,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -23849,6 +24423,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -23890,6 +24465,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -23931,6 +24507,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -23972,6 +24549,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -24013,6 +24591,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -24054,6 +24633,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -24095,6 +24675,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -24136,6 +24717,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -24177,6 +24759,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -24218,6 +24801,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -24259,6 +24843,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -24300,6 +24885,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -24341,6 +24927,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -24382,6 +24969,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -24423,6 +25011,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -24464,6 +25053,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -24505,6 +25095,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -24546,6 +25137,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -24587,6 +25179,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -24628,6 +25221,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -24669,6 +25263,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -24710,6 +25305,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -24751,6 +25347,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -24792,6 +25389,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -24833,6 +25431,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -24874,6 +25473,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -24915,6 +25515,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -24956,6 +25557,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -24997,6 +25599,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -25038,6 +25641,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -25079,6 +25683,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -25120,6 +25725,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -25161,6 +25767,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -25202,6 +25809,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -25243,6 +25851,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -25284,6 +25893,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -25325,6 +25935,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -25366,6 +25977,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -25407,6 +26019,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -25448,6 +26061,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -25489,6 +26103,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -25530,6 +26145,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -25571,6 +26187,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -25612,6 +26229,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -25653,6 +26271,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -25694,6 +26313,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -25735,6 +26355,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -25776,6 +26397,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -25817,6 +26439,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -25858,6 +26481,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -25899,6 +26523,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -25940,6 +26565,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -25981,6 +26607,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -26022,6 +26649,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -26063,6 +26691,7 @@
           <t>68%</t>
         </is>
       </c>
+      <c r="J625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -26104,6 +26733,7 @@
           <t>68%</t>
         </is>
       </c>
+      <c r="J626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -26145,6 +26775,7 @@
           <t>66%</t>
         </is>
       </c>
+      <c r="J627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -26186,6 +26817,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -26227,6 +26859,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -26268,6 +26901,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -26309,6 +26943,7 @@
           <t>70%</t>
         </is>
       </c>
+      <c r="J631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -26350,6 +26985,7 @@
           <t>90%</t>
         </is>
       </c>
+      <c r="J632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -26391,6 +27027,7 @@
           <t>86%</t>
         </is>
       </c>
+      <c r="J633" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sat_condensed.xlsx
+++ b/sat_condensed.xlsx
@@ -525,7 +525,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -567,7 +571,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -609,7 +617,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -651,7 +663,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -693,7 +709,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -735,7 +755,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -777,7 +801,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -819,7 +847,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -861,7 +893,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -903,7 +939,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -945,7 +985,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -987,7 +1031,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1029,7 +1077,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1071,7 +1123,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1113,7 +1169,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1155,7 +1215,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1197,7 +1261,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1239,7 +1307,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1281,7 +1353,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1323,7 +1399,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1365,7 +1445,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1407,7 +1491,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1449,7 +1537,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1491,7 +1583,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1533,7 +1629,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1575,7 +1675,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1617,7 +1721,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1659,7 +1767,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1701,7 +1813,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1743,7 +1859,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1785,7 +1905,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1827,7 +1951,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1869,7 +1997,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1911,7 +2043,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1953,7 +2089,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1995,7 +2135,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2037,7 +2181,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2079,7 +2227,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2121,7 +2273,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2163,7 +2319,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2205,7 +2365,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2247,7 +2411,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2289,7 +2457,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2331,7 +2503,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2373,7 +2549,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2415,7 +2595,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2457,7 +2641,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2499,7 +2687,11 @@
           <t>49%</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2541,7 +2733,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2583,7 +2779,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2625,7 +2825,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2667,7 +2871,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2709,7 +2917,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2751,7 +2963,11 @@
           <t>66%</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2793,7 +3009,11 @@
           <t>76%</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2835,7 +3055,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2877,7 +3101,11 @@
           <t>68%</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2919,7 +3147,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2961,7 +3193,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3003,7 +3239,11 @@
           <t>72%</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3045,7 +3285,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3087,7 +3331,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3129,7 +3377,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3171,7 +3423,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3213,7 +3469,11 @@
           <t>71%</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3255,7 +3515,11 @@
           <t>69%</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3297,7 +3561,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3339,7 +3607,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3381,7 +3653,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3423,7 +3699,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3465,7 +3745,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3507,7 +3791,11 @@
           <t>75%</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3549,7 +3837,11 @@
           <t>70%</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3591,7 +3883,11 @@
           <t>68%</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3633,7 +3929,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3675,7 +3975,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3717,7 +4021,11 @@
           <t>68%</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3759,7 +4067,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3801,7 +4113,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3843,7 +4159,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3885,7 +4205,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3927,7 +4251,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3969,7 +4297,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4011,7 +4343,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4053,7 +4389,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4095,7 +4435,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4137,7 +4481,11 @@
           <t>49%</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4179,7 +4527,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4221,7 +4573,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4263,7 +4619,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4305,7 +4665,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4347,7 +4711,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4389,7 +4757,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4431,7 +4803,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4473,7 +4849,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4515,7 +4895,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4557,7 +4941,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4599,7 +4987,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4641,7 +5033,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4683,7 +5079,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4725,7 +5125,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4767,7 +5171,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4809,7 +5217,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4851,7 +5263,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4893,7 +5309,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4935,7 +5355,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4977,7 +5401,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5019,7 +5447,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5061,7 +5493,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5103,7 +5539,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5145,7 +5585,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5187,7 +5631,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5229,7 +5677,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5271,7 +5723,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5313,7 +5769,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5355,7 +5815,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5397,7 +5861,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5439,7 +5907,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5481,7 +5953,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5523,7 +5999,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5565,7 +6045,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5607,7 +6091,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5649,7 +6137,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5691,7 +6183,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5733,7 +6229,11 @@
           <t>68%</t>
         </is>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5775,7 +6275,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5817,7 +6321,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5859,7 +6367,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5901,7 +6413,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5943,7 +6459,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5985,7 +6505,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6027,7 +6551,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6069,7 +6597,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6111,7 +6643,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6153,7 +6689,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6195,7 +6735,11 @@
           <t>49%</t>
         </is>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6237,7 +6781,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6279,7 +6827,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6321,7 +6873,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6363,7 +6919,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6405,7 +6965,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6447,7 +7011,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6489,7 +7057,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6531,7 +7103,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6573,7 +7149,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6615,7 +7195,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6657,7 +7241,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6699,7 +7287,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6741,7 +7333,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6783,7 +7379,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6825,7 +7425,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6867,7 +7471,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6909,7 +7517,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6951,7 +7563,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6993,7 +7609,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7035,7 +7655,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7077,7 +7701,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7119,7 +7747,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7161,7 +7793,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7203,7 +7839,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7245,7 +7885,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7287,7 +7931,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7329,7 +7977,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7371,7 +8023,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7413,7 +8069,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7455,7 +8115,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7497,7 +8161,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7539,7 +8207,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7581,7 +8253,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7623,7 +8299,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7665,7 +8345,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7707,7 +8391,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7749,7 +8437,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7791,7 +8483,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7833,7 +8529,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7875,7 +8575,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7917,7 +8621,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7959,7 +8667,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -8001,7 +8713,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -8043,7 +8759,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -8085,7 +8805,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -8127,7 +8851,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -8169,7 +8897,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -8211,7 +8943,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8253,7 +8989,11 @@
           <t>49%</t>
         </is>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8295,7 +9035,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8337,7 +9081,11 @@
           <t>49%</t>
         </is>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -8379,7 +9127,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8421,7 +9173,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8463,7 +9219,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8505,7 +9265,11 @@
           <t>47%</t>
         </is>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8547,7 +9311,11 @@
           <t>46%</t>
         </is>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8589,7 +9357,11 @@
           <t>46%</t>
         </is>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8631,7 +9403,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8673,7 +9449,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8715,7 +9495,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8757,7 +9541,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8799,7 +9587,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8841,7 +9633,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8883,7 +9679,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8925,7 +9725,11 @@
           <t>78%</t>
         </is>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -8967,7 +9771,11 @@
           <t>46%</t>
         </is>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -9009,7 +9817,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -9051,7 +9863,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -9093,7 +9909,11 @@
           <t>47%</t>
         </is>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -9135,7 +9955,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -9177,7 +10001,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -9219,7 +10047,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -9261,7 +10093,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -9303,7 +10139,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -9345,7 +10185,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -9387,7 +10231,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -9429,7 +10277,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -9471,7 +10323,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -9513,7 +10369,11 @@
           <t>66%</t>
         </is>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -9555,7 +10415,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -9597,7 +10461,11 @@
           <t>47%</t>
         </is>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -9639,7 +10507,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -9681,7 +10553,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -9723,7 +10599,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -9765,7 +10645,11 @@
           <t>46%</t>
         </is>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -9807,7 +10691,11 @@
           <t>79%</t>
         </is>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -9849,7 +10737,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -9891,7 +10783,11 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -9933,7 +10829,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -9975,7 +10875,11 @@
           <t>47%</t>
         </is>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -10017,7 +10921,11 @@
           <t>47%</t>
         </is>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -10059,7 +10967,11 @@
           <t>46%</t>
         </is>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -10101,7 +11013,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -10143,7 +11059,11 @@
           <t>47%</t>
         </is>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -10185,7 +11105,11 @@
           <t>80%</t>
         </is>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -10227,7 +11151,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -10269,7 +11197,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -10311,7 +11243,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -10353,7 +11289,11 @@
           <t>69%</t>
         </is>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -10395,7 +11335,11 @@
           <t>81%</t>
         </is>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -10437,7 +11381,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -10479,7 +11427,11 @@
           <t>83%</t>
         </is>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -10521,7 +11473,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -10563,7 +11519,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -10605,7 +11565,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -10647,7 +11611,11 @@
           <t>47%</t>
         </is>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -10689,7 +11657,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -10731,7 +11703,11 @@
           <t>47%</t>
         </is>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -10773,7 +11749,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -10815,7 +11795,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -10857,7 +11841,11 @@
           <t>46%</t>
         </is>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -10899,7 +11887,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -10941,7 +11933,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -10983,7 +11979,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -11025,7 +12025,11 @@
           <t>49%</t>
         </is>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -11067,7 +12071,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -11109,7 +12117,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -11151,7 +12163,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -11193,7 +12209,11 @@
           <t>46%</t>
         </is>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -11235,7 +12255,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -11277,7 +12301,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -11319,7 +12347,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -11361,7 +12393,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -11403,7 +12439,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -11445,7 +12485,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -11487,7 +12531,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -11529,7 +12577,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -11571,7 +12623,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -11613,7 +12669,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -11655,7 +12715,11 @@
           <t>49%</t>
         </is>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -11697,7 +12761,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -11739,7 +12807,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -11781,7 +12853,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -11823,7 +12899,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -11865,7 +12945,11 @@
           <t>43%</t>
         </is>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -11907,7 +12991,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -11949,7 +13037,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -11991,7 +13083,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -12033,7 +13129,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -12075,7 +13175,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -12117,7 +13221,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -12159,7 +13267,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -12201,7 +13313,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -12243,7 +13359,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -12285,7 +13405,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -12327,7 +13451,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -12369,7 +13497,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -12411,7 +13543,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -12453,7 +13589,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -12495,7 +13635,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -12537,7 +13681,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -12579,7 +13727,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -12621,7 +13773,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -12663,7 +13819,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -12705,7 +13865,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -12747,7 +13911,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -12789,7 +13957,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -12831,7 +14003,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -12873,7 +14049,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -12915,7 +14095,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -12957,7 +14141,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -12999,7 +14187,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -13041,7 +14233,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -13083,7 +14279,11 @@
           <t>75%</t>
         </is>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -13125,7 +14325,11 @@
           <t>66%</t>
         </is>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -13167,7 +14371,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -13209,7 +14417,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -13251,7 +14463,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -13293,7 +14509,11 @@
           <t>66%</t>
         </is>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -13335,7 +14555,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -13377,7 +14601,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -13419,7 +14647,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -13461,7 +14693,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -13503,7 +14739,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -13545,7 +14785,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -13587,7 +14831,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -13629,7 +14877,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -13671,7 +14923,11 @@
           <t>66%</t>
         </is>
       </c>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -13713,7 +14969,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -13755,7 +15015,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -13797,7 +15061,11 @@
           <t>70%</t>
         </is>
       </c>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -13839,7 +15107,11 @@
           <t>69%</t>
         </is>
       </c>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -13881,7 +15153,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -13923,7 +15199,11 @@
           <t>73%</t>
         </is>
       </c>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -13965,7 +15245,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -14007,7 +15291,11 @@
           <t>68%</t>
         </is>
       </c>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -14049,7 +15337,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -14091,7 +15383,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -14133,7 +15429,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -14175,7 +15475,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -14217,7 +15521,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -14259,7 +15567,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -14301,7 +15613,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -14343,7 +15659,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -14385,7 +15705,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -14427,7 +15751,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -14469,7 +15797,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -14511,7 +15843,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -14553,7 +15889,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -14595,7 +15935,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -14637,7 +15981,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -14679,7 +16027,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -14721,7 +16073,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -14763,7 +16119,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -14805,7 +16165,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -14847,7 +16211,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -14889,7 +16257,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -14931,7 +16303,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -14973,7 +16349,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -15015,7 +16395,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -15057,7 +16441,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -15099,7 +16487,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -15141,7 +16533,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -15183,7 +16579,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -15225,7 +16625,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -15267,7 +16671,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -15309,7 +16717,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -15351,7 +16763,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -15393,7 +16809,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -15435,7 +16855,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -15477,7 +16901,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -15519,7 +16947,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -15561,7 +16993,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -15603,7 +17039,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -15645,7 +17085,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -15687,7 +17131,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -15729,7 +17177,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -15771,7 +17223,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -15813,7 +17269,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -15855,7 +17315,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -15897,7 +17361,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -15939,7 +17407,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -15981,7 +17453,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -16023,7 +17499,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -16065,7 +17545,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -16107,7 +17591,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -16149,7 +17637,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -16191,7 +17683,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -16233,7 +17729,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -16275,7 +17775,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -16317,7 +17821,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -16359,7 +17867,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -16401,7 +17913,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -16443,7 +17959,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -16485,7 +18005,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -16527,7 +18051,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -16569,7 +18097,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -16611,7 +18143,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -16653,7 +18189,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -16695,7 +18235,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -16737,7 +18281,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -16779,7 +18327,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -16821,7 +18373,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -16863,7 +18419,11 @@
           <t>46%</t>
         </is>
       </c>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -16905,7 +18465,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -16947,7 +18511,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -16989,7 +18557,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -17031,7 +18603,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -17073,7 +18649,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -17115,7 +18695,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -17157,7 +18741,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -17199,7 +18787,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -17241,7 +18833,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -17283,7 +18879,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -17325,7 +18925,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -17367,7 +18971,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -17409,7 +19017,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -17451,7 +19063,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -17493,7 +19109,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -17535,7 +19155,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -17577,7 +19201,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -17619,7 +19247,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -17661,7 +19293,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -17703,7 +19339,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -17745,7 +19385,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -17787,7 +19431,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -17829,7 +19477,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -17871,7 +19523,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -17913,7 +19569,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -17955,7 +19615,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -17997,7 +19661,11 @@
           <t>66%</t>
         </is>
       </c>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -18039,7 +19707,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -18081,7 +19753,11 @@
           <t>68%</t>
         </is>
       </c>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -18123,7 +19799,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -18165,7 +19845,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -18207,7 +19891,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -18249,7 +19937,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -18291,7 +19983,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -18333,7 +20029,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -18375,7 +20075,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -18417,7 +20121,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -18459,7 +20167,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -18501,7 +20213,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -18543,7 +20259,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -18585,7 +20305,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -18627,7 +20351,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -18669,7 +20397,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -18711,7 +20443,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -18753,7 +20489,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -18795,7 +20535,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -18837,7 +20581,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -18879,7 +20627,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -18921,7 +20673,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -18963,7 +20719,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -19005,7 +20765,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -19047,7 +20811,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -19089,7 +20857,11 @@
           <t>69%</t>
         </is>
       </c>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -19131,7 +20903,11 @@
           <t>73%</t>
         </is>
       </c>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -19173,7 +20949,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -19215,7 +20995,11 @@
           <t>71%</t>
         </is>
       </c>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -19257,7 +21041,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -19299,7 +21087,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -19341,7 +21133,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -19383,7 +21179,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -19425,7 +21225,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -19467,7 +21271,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -19509,7 +21317,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -19551,7 +21363,11 @@
           <t>75%</t>
         </is>
       </c>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -19593,7 +21409,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -19635,7 +21455,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -19677,7 +21501,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -19719,7 +21547,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -19761,7 +21593,11 @@
           <t>71%</t>
         </is>
       </c>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -19803,7 +21639,11 @@
           <t>71%</t>
         </is>
       </c>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -19845,7 +21685,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -19887,7 +21731,11 @@
           <t>69%</t>
         </is>
       </c>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -19929,7 +21777,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -19971,7 +21823,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -20013,7 +21869,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -20055,7 +21915,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -20097,7 +21961,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -20139,7 +22007,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -20181,7 +22053,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -20223,7 +22099,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -20265,7 +22145,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -20307,7 +22191,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -20349,7 +22237,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -20391,7 +22283,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -20433,7 +22329,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -20475,7 +22375,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -20517,7 +22421,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -20559,7 +22467,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -20601,7 +22513,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -20643,7 +22559,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -20685,7 +22605,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -20727,7 +22651,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -20769,7 +22697,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -20811,7 +22743,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -20853,7 +22789,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -20895,7 +22835,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -20937,7 +22881,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -20979,7 +22927,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -21021,7 +22973,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -21063,7 +23019,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -21105,7 +23065,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -21147,7 +23111,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -21189,7 +23157,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -21231,7 +23203,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -21273,7 +23249,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -21315,7 +23295,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -21357,7 +23341,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -21399,7 +23387,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -21441,7 +23433,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -21483,7 +23479,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -21525,7 +23525,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -21567,7 +23571,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -21609,7 +23617,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -21651,7 +23663,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -21693,7 +23709,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -21735,7 +23755,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -21777,7 +23801,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -21819,7 +23847,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -21861,7 +23893,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -21903,7 +23939,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -21945,7 +23985,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -21987,7 +24031,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -22029,7 +24077,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -22071,7 +24123,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -22113,7 +24169,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -22155,7 +24215,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -22197,7 +24261,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -22239,7 +24307,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -22281,7 +24353,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -22323,7 +24399,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -22365,7 +24445,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -22407,7 +24491,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -22449,7 +24537,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -22491,7 +24583,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -22533,7 +24629,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -22575,7 +24675,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -22617,7 +24721,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -22659,7 +24767,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -22701,7 +24813,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -22743,7 +24859,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -22785,7 +24905,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -22827,7 +24951,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -22869,7 +24997,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -22911,7 +25043,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -22953,7 +25089,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -22995,7 +25135,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -23037,7 +25181,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -23079,7 +25227,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -23121,7 +25273,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -23163,7 +25319,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -23205,7 +25365,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -23247,7 +25411,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -23289,7 +25457,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -23331,7 +25503,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -23373,7 +25549,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -23415,7 +25595,11 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -23457,7 +25641,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J548" t="inlineStr"/>
+      <c r="J548" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -23499,7 +25687,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -23541,7 +25733,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -23583,7 +25779,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -23625,7 +25825,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -23667,7 +25871,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -23709,7 +25917,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -23751,7 +25963,11 @@
           <t>69%</t>
         </is>
       </c>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -23793,7 +26009,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -23835,7 +26055,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -23877,7 +26101,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -23919,7 +26147,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -23961,7 +26193,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -24003,7 +26239,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -24045,7 +26285,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -24087,7 +26331,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -24129,7 +26377,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -24171,7 +26423,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -24213,7 +26469,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -24255,7 +26515,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -24297,7 +26561,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -24339,7 +26607,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -24381,7 +26653,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -24423,7 +26699,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -24465,7 +26745,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -24507,7 +26791,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -24549,7 +26837,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -24591,7 +26883,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -24633,7 +26929,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -24675,7 +26975,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -24717,7 +27021,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -24759,7 +27067,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -24801,7 +27113,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -24843,7 +27159,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -24885,7 +27205,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -24927,7 +27251,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -24969,7 +27297,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -25011,7 +27343,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -25053,7 +27389,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -25095,7 +27435,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -25137,7 +27481,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -25179,7 +27527,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -25221,7 +27573,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -25263,7 +27619,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -25305,7 +27665,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -25347,7 +27711,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -25389,7 +27757,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -25431,7 +27803,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -25473,7 +27849,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -25515,7 +27895,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -25557,7 +27941,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -25599,7 +27987,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -25641,7 +28033,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -25683,7 +28079,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -25725,7 +28125,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -25767,7 +28171,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -25809,7 +28217,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -25851,7 +28263,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -25893,7 +28309,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -25935,7 +28355,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -25977,7 +28401,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -26019,7 +28447,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -26061,7 +28493,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -26103,7 +28539,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -26145,7 +28585,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -26187,7 +28631,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -26229,7 +28677,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -26271,7 +28723,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -26313,7 +28769,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -26355,7 +28815,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -26397,7 +28861,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -26439,7 +28907,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -26481,7 +28953,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -26523,7 +28999,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -26565,7 +29045,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -26607,7 +29091,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -26649,7 +29137,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -26691,7 +29183,11 @@
           <t>68%</t>
         </is>
       </c>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -26733,7 +29229,11 @@
           <t>68%</t>
         </is>
       </c>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -26775,7 +29275,11 @@
           <t>66%</t>
         </is>
       </c>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -26817,7 +29321,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -26859,7 +29367,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -26901,7 +29413,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -26943,7 +29459,11 @@
           <t>70%</t>
         </is>
       </c>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -26985,7 +29505,11 @@
           <t>90%</t>
         </is>
       </c>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -27027,7 +29551,11 @@
           <t>86%</t>
         </is>
       </c>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
